--- a/wwwroot/EmployeeData.xlsx
+++ b/wwwroot/EmployeeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sainikhil_godlaveti_capgemini_com/Documents/Documents/DotNet/EmployeePortal/wwwroot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E4CA750-295A-4BAF-AD98-EBD1ACB76DD9}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE69158-94BC-4822-8325-A9020FD508AF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,27 @@
     <t>Date of Hire</t>
   </si>
   <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>POD Name</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Offshore City</t>
+  </si>
+  <si>
     <t>Sainikhil</t>
   </si>
   <si>
@@ -59,127 +80,170 @@
     <t>07036404155</t>
   </si>
   <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>C&amp;CA</t>
+  </si>
+  <si>
+    <t>0001-01-01</t>
+  </si>
+  <si>
+    <t>ALTRIA_Governance Del 2024</t>
+  </si>
+  <si>
+    <t>lizdhi</t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>HYDERABAD</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>I&amp;D</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2F_AAA Data Eng 2024</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>BHUBANESWAR</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Duracell_Enhancements'24</t>
+  </si>
+  <si>
+    <t>01-01-0001</t>
+  </si>
+  <si>
+    <t>Duracell_App Support'24</t>
+  </si>
+  <si>
+    <t>CHENNAI</t>
+  </si>
+  <si>
+    <t>7036404155</t>
+  </si>
+  <si>
+    <t>ITRM Analytics</t>
+  </si>
+  <si>
+    <t>PUNE</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>ALTRIA_DATA_Eng_DOME Anlyt</t>
+  </si>
+  <si>
+    <t>Nmnoi</t>
+  </si>
+  <si>
+    <t>onshore</t>
+  </si>
+  <si>
+    <t>BANGALURU</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>I&amp;D (FS)</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>C&amp;CA</t>
-  </si>
-  <si>
-    <t>0001-01-01</t>
-  </si>
-  <si>
-    <t>Nmnoi</t>
-  </si>
-  <si>
     <t>DAC</t>
   </si>
   <si>
-    <t>Project Code</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>POD Name</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>A5</t>
+    <t>NOIDA</t>
+  </si>
+  <si>
+    <t>INVENT</t>
+  </si>
+  <si>
+    <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
+  </si>
+  <si>
+    <t>KOLKATTA</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>lizdhi</t>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2A_AGDC Sales</t>
+  </si>
+  <si>
+    <t>xjlnc</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>xjlnc</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>I&amp;D</t>
-  </si>
-  <si>
-    <t>I&amp;D (FS)</t>
-  </si>
-  <si>
-    <t>INVENT</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
     <t>ER&amp;D</t>
   </si>
   <si>
-    <t>ALTRIA_AE_2F_AAA Data Eng 2024</t>
-  </si>
-  <si>
-    <t>ALTRIA_DATA_Eng_DOME Anlyt</t>
-  </si>
-  <si>
-    <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
-  </si>
-  <si>
-    <t>ITRM Analytics</t>
-  </si>
-  <si>
-    <t>ALTRIA_AE_2A_AGDC Sales</t>
-  </si>
-  <si>
     <t>ALTRIA_AE_2F_AAA Data Gov 2024</t>
-  </si>
-  <si>
-    <t>ALTRIA_Governance Del 2024</t>
-  </si>
-  <si>
-    <t>Duracell_App Support'24</t>
-  </si>
-  <si>
-    <t>Duracell_Enhancements'24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,15 +251,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,6 +294,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,79 +617,439 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="14.08984375" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2">
+        <v>101060094</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>101082220</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>101060093</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5">
+        <v>101049502</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
+        <v>101049502</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
+        <v>101082220</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>101082220</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>101060094</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -614,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A89AF9B-5D2B-4CB5-8709-D8948391AB85}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,145 +1080,175 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>101025223</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>101082220</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <v>101075016</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>101070251</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>101025264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1">
         <v>101025227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>101049502</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>101060093</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>101060094</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">

--- a/wwwroot/EmployeeData.xlsx
+++ b/wwwroot/EmployeeData.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sainikhil_godlaveti_capgemini_com/Documents/Documents/DotNet/EmployeePortal/wwwroot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEE69158-94BC-4822-8325-A9020FD508AF}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF9ED57-EA86-4BFA-96F2-2AE3084BE7D0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3560" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
     <sheet name="Dropdown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -68,155 +68,159 @@
     <t>Offshore City</t>
   </si>
   <si>
+    <t>Sainikhil1</t>
+  </si>
+  <si>
+    <t>Godlaveti</t>
+  </si>
+  <si>
+    <t>sainikhilgodl@gmail.com</t>
+  </si>
+  <si>
+    <t>07036404155</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>I&amp;D</t>
+  </si>
+  <si>
+    <t>01-01-0001</t>
+  </si>
+  <si>
+    <t>ALTRIA_Governance Del 2024</t>
+  </si>
+  <si>
+    <t>lizdhi</t>
+  </si>
+  <si>
+    <t>0001-01-01</t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>HYDERABAD</t>
+  </si>
+  <si>
     <t>Sainikhil</t>
   </si>
   <si>
-    <t>Godlaveti</t>
-  </si>
-  <si>
-    <t>sainikhilgodl@gmail.com</t>
-  </si>
-  <si>
-    <t>07036404155</t>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>C&amp;CA</t>
+  </si>
+  <si>
+    <t>onshore</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Duracell_App Support'24</t>
+  </si>
+  <si>
+    <t>CHENNAI</t>
+  </si>
+  <si>
+    <t>7036404155</t>
+  </si>
+  <si>
+    <t>ITRM Analytics</t>
+  </si>
+  <si>
+    <t>PUNE</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>ALTRIA_DATA_Eng_DOME Anlyt</t>
+  </si>
+  <si>
+    <t>Nmnoi</t>
+  </si>
+  <si>
+    <t>BANGALURU</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>I&amp;D (FS)</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2A_AGDC Sales</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2F_AAA Data Eng 2024</t>
+  </si>
+  <si>
+    <t>NOIDA</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>C&amp;CA</t>
-  </si>
-  <si>
-    <t>0001-01-01</t>
-  </si>
-  <si>
-    <t>ALTRIA_Governance Del 2024</t>
-  </si>
-  <si>
-    <t>lizdhi</t>
-  </si>
-  <si>
-    <t>offshore</t>
-  </si>
-  <si>
-    <t>HYDERABAD</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>I&amp;D</t>
-  </si>
-  <si>
-    <t>ALTRIA_AE_2F_AAA Data Eng 2024</t>
-  </si>
-  <si>
-    <t>ABC</t>
+    <t>INVENT</t>
+  </si>
+  <si>
+    <t>KOLKATTA</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>xjlnc</t>
+  </si>
+  <si>
+    <t>ER&amp;D</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2F_AAA Data Gov 2024</t>
   </si>
   <si>
     <t>BHUBANESWAR</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>Duracell_Enhancements'24</t>
-  </si>
-  <si>
-    <t>01-01-0001</t>
-  </si>
-  <si>
-    <t>Duracell_App Support'24</t>
-  </si>
-  <si>
-    <t>CHENNAI</t>
-  </si>
-  <si>
-    <t>7036404155</t>
-  </si>
-  <si>
-    <t>ITRM Analytics</t>
-  </si>
-  <si>
-    <t>PUNE</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>ALTRIA_DATA_Eng_DOME Anlyt</t>
-  </si>
-  <si>
-    <t>Nmnoi</t>
-  </si>
-  <si>
-    <t>onshore</t>
-  </si>
-  <si>
-    <t>BANGALURU</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>I&amp;D (FS)</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>NOIDA</t>
-  </si>
-  <si>
-    <t>INVENT</t>
-  </si>
-  <si>
-    <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
-  </si>
-  <si>
-    <t>KOLKATTA</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>MUMBAI</t>
-  </si>
-  <si>
-    <t>ALTRIA_AE_2A_AGDC Sales</t>
-  </si>
-  <si>
-    <t>xjlnc</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>ER&amp;D</t>
-  </si>
-  <si>
-    <t>ALTRIA_AE_2F_AAA Data Gov 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -275,10 +279,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,10 +298,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,19 +617,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="2.81640625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="30" customWidth="1"/>
     <col min="11" max="11" width="16.90625" customWidth="1"/>
+    <col min="12" max="13" bestFit="1" width="10.08984375" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,384 +683,526 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>101060094</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I3" s="0">
+        <v>101060094</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="0">
+        <v>101060094</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="I5" s="0">
+        <v>101049502</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="O5" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="0">
+        <v>101049502</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="0">
+        <v>101082220</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3">
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="0">
         <v>101082220</v>
       </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="H9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="0">
+        <v>101025227</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="O9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="0">
+        <v>101025227</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>101060093</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="0">
+        <v>101075016</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="O11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D12" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>101049502</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>101049502</v>
-      </c>
-      <c r="J6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7">
-        <v>101082220</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F12" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="0">
+        <v>101070251</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8">
-        <v>101082220</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9">
-        <v>101060094</v>
-      </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" t="s">
-        <v>44</v>
+      <c r="L12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1061,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A89AF9B-5D2B-4CB5-8709-D8948391AB85}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1072,146 +1221,146 @@
     <col min="7" max="7" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>101025223</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>101082220</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>101075016</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>101070251</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="1">
         <v>101025264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F6" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
       </c>
       <c r="C7" s="1">
         <v>101025227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>101049502</v>
@@ -1219,45 +1368,46 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>39</v>
+      <c r="F8" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>101060093</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>101060094</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>31</v>
+        <v>63</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/wwwroot/EmployeeData.xlsx
+++ b/wwwroot/EmployeeData.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sainikhil_godlaveti_capgemini_com/Documents/Documents/DotNet/EmployeePortal/wwwroot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FF9ED57-EA86-4BFA-96F2-2AE3084BE7D0}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="11_DAC428E2D427714CB5693297FC81065C10083C09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D52488-B62C-49DE-8C70-C20B38343108}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3560" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
     <sheet name="Dropdown" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -80,31 +80,37 @@
     <t>07036404155</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>I&amp;D</t>
+  </si>
+  <si>
+    <t>01-01-0001</t>
+  </si>
+  <si>
+    <t>ALTRIA_Governance Del 2024</t>
+  </si>
+  <si>
+    <t>lizdhi</t>
+  </si>
+  <si>
+    <t>0001-01-01</t>
+  </si>
+  <si>
+    <t>offshore</t>
+  </si>
+  <si>
+    <t>HYDERABAD</t>
+  </si>
+  <si>
+    <t>Sainikhil</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>I&amp;D</t>
-  </si>
-  <si>
-    <t>01-01-0001</t>
-  </si>
-  <si>
-    <t>ALTRIA_Governance Del 2024</t>
-  </si>
-  <si>
-    <t>lizdhi</t>
-  </si>
-  <si>
-    <t>0001-01-01</t>
-  </si>
-  <si>
-    <t>offshore</t>
-  </si>
-  <si>
-    <t>HYDERABAD</t>
-  </si>
-  <si>
-    <t>Sainikhil</t>
+    <t>ABC</t>
   </si>
   <si>
     <t>E1</t>
@@ -137,90 +143,98 @@
     <t>PUNE</t>
   </si>
   <si>
+    <t>ALTRIA_DATA_Eng_DOME Anlyt</t>
+  </si>
+  <si>
+    <t>BANGALURU</t>
+  </si>
+  <si>
+    <t>CIS</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
+  </si>
+  <si>
+    <t>Nmnoi</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>kdf</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2F_AAA Data Gov 2024</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2F_AAA Data Eng 2024</t>
+  </si>
+  <si>
+    <t>NOIDA</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>INVENT</t>
+  </si>
+  <si>
+    <t>KOLKATTA</t>
+  </si>
+  <si>
+    <t>I&amp;D (FS)</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>ALTRIA_AE_2A_AGDC Sales</t>
+  </si>
+  <si>
+    <t>xjlnc</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>ER&amp;D</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>ALTRIA_DATA_Eng_DOME Anlyt</t>
-  </si>
-  <si>
-    <t>Nmnoi</t>
-  </si>
-  <si>
-    <t>BANGALURU</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>ALTRIA_SAP ET FIN Rpt Anlyt_24</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>I&amp;D (FS)</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>ALTRIA_AE_2A_AGDC Sales</t>
-  </si>
-  <si>
-    <t>ALTRIA_AE_2F_AAA Data Eng 2024</t>
-  </si>
-  <si>
-    <t>NOIDA</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>INVENT</t>
-  </si>
-  <si>
-    <t>KOLKATTA</t>
-  </si>
-  <si>
-    <t>MUMBAI</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>xjlnc</t>
-  </si>
-  <si>
-    <t>ER&amp;D</t>
-  </si>
-  <si>
-    <t>ALTRIA_AE_2F_AAA Data Gov 2024</t>
-  </si>
-  <si>
     <t>BHUBANESWAR</t>
   </si>
   <si>
     <t>Duracell_Enhancements'24</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -279,10 +293,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,6 +312,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,26 +635,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="Q2" sqref="P1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="2.81640625" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="11.81640625" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="10.08984375" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="9.81640625" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="30" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.90625" customWidth="1"/>
-    <col min="12" max="13" bestFit="1" width="10.08984375" customWidth="1"/>
-    <col min="15" max="15" bestFit="1" width="14.08984375" customWidth="1"/>
+    <col min="12" max="13" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -682,536 +700,682 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
+      <c r="P1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>101060094</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="0" t="s">
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>101060094</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>101060094</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <v>101049502</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>101049502</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>101082220</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>101082220</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9">
+        <v>101025227</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="0">
-        <v>101060094</v>
-      </c>
-      <c r="J3" s="0" t="s">
+      <c r="I10">
+        <v>101025227</v>
+      </c>
+      <c r="J10" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <v>101075016</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="L11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="0">
-        <v>101060094</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="0" t="s">
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>101075016</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>101025227</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="0">
-        <v>101049502</v>
-      </c>
-      <c r="J5" s="0" t="s">
+      <c r="O13" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14">
+        <v>101025223</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="0">
-        <v>101049502</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="O14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="0">
-        <v>101082220</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="0" t="s">
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15">
+        <v>101025223</v>
+      </c>
+      <c r="J15" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="0">
-        <v>101082220</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="0">
-        <v>101025227</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="0">
-        <v>101025227</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="0">
-        <v>101075016</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="s">
         <v>33</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="0">
-        <v>101070251</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A89AF9B-5D2B-4CB5-8709-D8948391AB85}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1221,146 +1385,149 @@
     <col min="7" max="7" width="20.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>101025223</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>101082220</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="1">
         <v>101075016</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>48</v>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>101070251</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>43</v>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="1">
         <v>101025264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>60</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
       </c>
       <c r="C7" s="1">
         <v>101025227</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>101049502</v>
@@ -1368,46 +1535,50 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>38</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="1">
         <v>101060093</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="1">
         <v>101060094</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
       </c>
       <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>